--- a/output/StructureDefinition-t-cabs-communication-alarm.xlsx
+++ b/output/StructureDefinition-t-cabs-communication-alarm.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$37</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T14:55:10+01:00</t>
+    <t>2025-03-19T16:19:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil eines eingestellten und/oder gemessenen Alarms eines Beatmungsgerätes</t>
+    <t>Abstraktes Profil eines eingestellten und/oder gemessenen Alarms eines Beatmungsgerätes</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -638,6 +641,13 @@
     <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="alert"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Codes for general categories of communications such as alerts, instructions, etc.</t>
   </si>
   <si>
@@ -733,10 +743,14 @@
     <t>Communication.about</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/StructureDefinition/parameter-von-beatmung)
+</t>
+  </si>
+  <si>
     <t>Resources that pertain to this communication</t>
   </si>
   <si>
-    <t>Other resources that pertain to this communication and to which this communication should be associated.</t>
+    <t>Der gemessene Wert des Parameters, der die Grenze überschritten hat ((Observation.device auf Messung(DeviceMetric))).</t>
   </si>
   <si>
     <t>Don't use Communication.about element when a more specific element exists, such as basedOn or reasonReference.</t>
@@ -814,14 +828,14 @@
     <t>Communication.sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
+    <t xml:space="preserve">Reference(http://t-cabs.org/StructureDefinition/t-cabs-device-beatmungsgeraet)
 </t>
   </si>
   <si>
     <t>Message sender</t>
   </si>
   <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
+    <t>Referenz auf das, den Alarm auslösende, Beatmungsgerät.</t>
   </si>
   <si>
     <t>Communication.reasonCode</t>
@@ -854,14 +868,10 @@
     <t>Communication.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
     <t>Why was communication done?</t>
   </si>
   <si>
-    <t>Indicates another resource whose existence justifies this communication.</t>
+    <t>Optionale Referenz auf den eingestellten Wert des Parameters.</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1083,6 +1093,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1278,7 +1303,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1427,7 +1452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -1647,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -1756,7 +1781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -1867,7 +1892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>104</v>
       </c>
@@ -1978,7 +2003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
@@ -2089,7 +2114,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -2200,7 +2225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -2311,7 +2336,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>137</v>
       </c>
@@ -2424,7 +2449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -2537,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -2646,7 +2671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -2757,7 +2782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -2868,7 +2893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -2977,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>173</v>
       </c>
@@ -3086,7 +3111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>177</v>
       </c>
@@ -3197,7 +3222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>186</v>
       </c>
@@ -3308,7 +3333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>196</v>
       </c>
@@ -3321,13 +3346,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
@@ -3356,7 +3381,7 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>20</v>
@@ -3374,10 +3399,10 @@
         <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3413,18 +3438,18 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3450,20 +3475,20 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>20</v>
@@ -3487,10 +3512,10 @@
         <v>181</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3508,7 +3533,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3526,18 +3551,18 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3563,10 +3588,10 @@
         <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3596,10 +3621,10 @@
         <v>192</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3617,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3641,26 +3666,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
@@ -3669,13 +3694,13 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3726,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3741,21 +3766,21 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3781,13 +3806,13 @@
         <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3816,10 +3841,10 @@
         <v>192</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -3837,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3855,18 +3880,18 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3874,13 +3899,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -3889,16 +3914,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3948,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3966,18 +3991,18 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4000,16 +4025,16 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4059,7 +4084,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4074,21 +4099,21 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4111,13 +4136,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4168,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4183,21 +4208,21 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4220,13 +4245,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4277,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4292,21 +4317,21 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4329,13 +4354,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4386,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4401,21 +4426,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4423,13 +4448,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -4438,13 +4463,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4495,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4510,21 +4535,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4550,13 +4575,13 @@
         <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4585,10 +4610,10 @@
         <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -4606,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4621,21 +4646,21 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4646,10 +4671,10 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -4658,13 +4683,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4715,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4730,21 +4755,21 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4767,13 +4792,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4824,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4848,12 +4873,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4876,13 +4901,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4933,7 +4958,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4954,15 +4979,15 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4991,7 +5016,7 @@
         <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>134</v>
@@ -5044,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5065,19 +5090,19 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5099,10 +5124,10 @@
         <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>134</v>
@@ -5157,7 +5182,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5181,12 +5206,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5209,13 +5234,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5266,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
@@ -5290,12 +5315,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5318,13 +5343,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5375,7 +5400,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5390,7 +5415,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5400,6 +5425,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM37">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI36">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-t-cabs-communication-alarm.xlsx
+++ b/output/StructureDefinition-t-cabs-communication-alarm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,7 +643,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="alert"/&gt;
+    &lt;system value="urn:iso:std:iso:11073:10101"/&gt;
+    &lt;code value="198132"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -750,7 +751,7 @@
     <t>Resources that pertain to this communication</t>
   </si>
   <si>
-    <t>Der gemessene Wert des Parameters, der die Grenze überschritten hat ((Observation.device auf Messung(DeviceMetric))).</t>
+    <t>Der gemessene Wert des Parameters, der die Alarmgrenze überschritten hat ((Observation.device auf Messung(DeviceMetric))).</t>
   </si>
   <si>
     <t>Don't use Communication.about element when a more specific element exists, such as basedOn or reasonReference.</t>
@@ -3130,7 +3131,7 @@
         <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>86</v>
@@ -3463,7 +3464,7 @@
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
@@ -3899,7 +3900,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>85</v>

--- a/output/StructureDefinition-t-cabs-communication-alarm.xlsx
+++ b/output/StructureDefinition-t-cabs-communication-alarm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-communication-alarm.xlsx
+++ b/output/StructureDefinition-t-cabs-communication-alarm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
